--- a/medicine/Enfance/Sergio_De_Simone/Sergio_De_Simone.xlsx
+++ b/medicine/Enfance/Sergio_De_Simone/Sergio_De_Simone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergio De Simone, né à Naples le 29 novembre 1937 et mort le 20 avril 1945 à Hambourg, est un enfant victime de la Shoah : arrêté avec sa famille juive pendant des vacances d'été à Rijeka (aujourd'hui en Croatie mais, à l'époque, territoire du royaume d'Italie), il est déporté en Allemagne, soumis à des expérimentations humaines puis assassiné.
 Âgé de sept ans, Sergio De Simone est l'une des victimes du massacre des enfants de Bullenhuser Damm. Vingt enfants, de nationalités diverses, ont été sélectionnés par Joseph Mengele en tant que cobayes humains pour servir les expérimentations de Kurt Heissmeyer au camp de concentration de Neuengamme, près de Hambourg. Alors que les Alliés se rapprochent de la ville, les criminels menant ces expériences cherchent à détruire les preuves de leurs exactions : les vingt enfants, ainsi que leur quatre accompagnateurs adultes et vingt-quatre prisonniers soviétiques sont emmenés dans la cave de Bullenhuser Damm et y sont assassinés.
